--- a/PRODUCTOS/excel/tanques_datos.xlsx
+++ b/PRODUCTOS/excel/tanques_datos.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A09FA5C-193E-4F5E-82D0-CCAFED9CD52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB16C2CA-F078-4CD4-AFD7-454CC81353AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biodigestores" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -770,9 +774,6 @@
     <t>Tanque de agua Eternit cisterna 850L</t>
   </si>
   <si>
-    <t>cisterna 850L</t>
-  </si>
-  <si>
     <t>PRODUCTOS\tanques\img\0021_1.jpg</t>
   </si>
   <si>
@@ -809,13 +810,16 @@
   </si>
   <si>
     <t>PRODUCTOS\tanques\img\0015_1.jpg</t>
+  </si>
+  <si>
+    <t>ETERNIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1213,6 +1217,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,7 +1244,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1533,7 +1546,7 @@
       <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
@@ -1555,7 +1568,7 @@
     <col min="22" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="409.6">
+    <row r="2" spans="1:23" ht="405" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>23</v>
       </c>
@@ -1689,7 +1702,7 @@
       <c r="V2" s="17"/>
       <c r="W2" s="17"/>
     </row>
-    <row r="3" spans="1:23" ht="409.6">
+    <row r="3" spans="1:23" ht="405" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>34</v>
       </c>
@@ -1752,7 +1765,7 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -1777,7 +1790,7 @@
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1802,7 +1815,7 @@
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1827,7 +1840,7 @@
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1852,7 +1865,7 @@
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1877,7 +1890,7 @@
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1902,7 +1915,7 @@
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1927,7 +1940,7 @@
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -1952,7 +1965,7 @@
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1977,7 +1990,7 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -2011,9 +2024,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4784A99D-B888-41AD-A6AD-E0E8291E2D36}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
@@ -2033,7 +2048,7 @@
     <col min="18" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2095,7 +2110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="381.75">
+    <row r="2" spans="1:20" ht="375" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>47</v>
       </c>
@@ -2149,7 +2164,7 @@
       <c r="S2" s="25"/>
       <c r="T2" s="19"/>
     </row>
-    <row r="3" spans="1:20" ht="381.75">
+    <row r="3" spans="1:20" ht="375" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>61</v>
       </c>
@@ -2203,29 +2218,41 @@
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-    </row>
-    <row r="5" spans="1:20">
+    <row r="4" spans="1:20" s="19" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="N4" s="42"/>
+      <c r="Q4" s="44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2247,7 +2274,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -2269,7 +2296,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2291,7 +2318,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -2313,7 +2340,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -2335,7 +2362,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -2357,7 +2384,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -2379,7 +2406,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2401,7 +2428,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -2423,7 +2450,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -2445,7 +2472,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -2467,7 +2494,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -2489,7 +2516,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -2511,7 +2538,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -2533,7 +2560,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -2555,7 +2582,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -2577,7 +2604,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -2599,7 +2626,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2621,7 +2648,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2643,7 +2670,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2665,7 +2692,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2687,7 +2714,7 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2709,7 +2736,7 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2731,7 +2758,7 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2755,6 +2782,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2766,7 +2794,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
@@ -2788,7 +2816,7 @@
     <col min="18" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="37.5">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2850,7 +2878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="366">
+    <row r="2" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>69</v>
       </c>
@@ -2904,7 +2932,7 @@
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
     </row>
-    <row r="3" spans="1:20" ht="366">
+    <row r="3" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>84</v>
       </c>
@@ -2958,7 +2986,7 @@
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
     </row>
-    <row r="4" spans="1:20" ht="366">
+    <row r="4" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>90</v>
       </c>
@@ -3012,7 +3040,7 @@
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
     </row>
-    <row r="5" spans="1:20" ht="366">
+    <row r="5" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>97</v>
       </c>
@@ -3066,7 +3094,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:20" ht="366">
+    <row r="6" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>104</v>
       </c>
@@ -3120,7 +3148,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:20" ht="366">
+    <row r="7" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>111</v>
       </c>
@@ -3174,7 +3202,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -3196,7 +3224,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -3218,7 +3246,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -3240,7 +3268,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -3262,7 +3290,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -3284,7 +3312,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -3306,7 +3334,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -3328,7 +3356,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -3350,7 +3378,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -3372,7 +3400,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -3394,7 +3422,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -3416,7 +3444,7 @@
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -3438,7 +3466,7 @@
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -3460,7 +3488,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -3482,7 +3510,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -3504,7 +3532,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -3526,7 +3554,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -3548,7 +3576,7 @@
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -3570,7 +3598,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -3592,7 +3620,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -3614,7 +3642,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -3649,7 +3677,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="3" width="18.28515625" customWidth="1"/>
@@ -3669,7 +3697,7 @@
     <col min="17" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3728,7 +3756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="409.6">
+    <row r="2" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>119</v>
       </c>
@@ -3779,7 +3807,7 @@
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
     </row>
-    <row r="3" spans="1:19" ht="409.6">
+    <row r="3" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>127</v>
       </c>
@@ -3830,7 +3858,7 @@
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
     </row>
-    <row r="4" spans="1:19" ht="409.6">
+    <row r="4" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>132</v>
       </c>
@@ -3881,7 +3909,7 @@
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -3902,7 +3930,7 @@
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -3923,7 +3951,7 @@
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -3944,7 +3972,7 @@
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -3965,7 +3993,7 @@
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -3986,7 +4014,7 @@
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4007,7 +4035,7 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4028,7 +4056,7 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4049,7 +4077,7 @@
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4070,7 +4098,7 @@
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4091,7 +4119,7 @@
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -4112,7 +4140,7 @@
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -4133,7 +4161,7 @@
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -4154,7 +4182,7 @@
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -4175,7 +4203,7 @@
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -4196,7 +4224,7 @@
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -4217,7 +4245,7 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -4238,7 +4266,7 @@
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -4259,7 +4287,7 @@
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -4280,7 +4308,7 @@
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -4301,7 +4329,7 @@
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -4322,7 +4350,7 @@
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -4343,7 +4371,7 @@
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -4364,7 +4392,7 @@
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -4385,7 +4413,7 @@
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -4406,7 +4434,7 @@
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -4434,13 +4462,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A490654-6BF6-4D25-8E9D-A7ECA52B101E}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="29"/>
     <col min="2" max="2" width="40.140625" style="30" customWidth="1"/>
@@ -4457,7 +4485,7 @@
     <col min="15" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" customHeight="1">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -4501,7 +4529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="106.5">
+    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>138</v>
       </c>
@@ -4537,7 +4565,7 @@
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
     </row>
-    <row r="3" spans="1:14" ht="121.5">
+    <row r="3" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>148</v>
       </c>
@@ -4569,7 +4597,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="137.25">
+    <row r="4" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>156</v>
       </c>
@@ -4601,7 +4629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="106.5">
+    <row r="5" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>164</v>
       </c>
@@ -4633,7 +4661,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="229.5">
+    <row r="6" spans="1:14" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>173</v>
       </c>
@@ -4663,38 +4691,6 @@
       </c>
       <c r="K6" s="38" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="91.5">
-      <c r="A7" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4706,11 +4702,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA42C19-1E0E-4580-AAFD-4C513587D2FD}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
@@ -4728,7 +4724,7 @@
     <col min="17" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="57">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4787,25 +4783,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="167.25">
+    <row r="2" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>190</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>191</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -4820,25 +4816,25 @@
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
     </row>
-    <row r="3" spans="1:19" ht="91.5">
+    <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>193</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>194</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>194</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>195</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -4853,7 +4849,7 @@
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -4874,7 +4870,7 @@
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4895,7 +4891,7 @@
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4916,7 +4912,7 @@
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4937,7 +4933,7 @@
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4958,7 +4954,7 @@
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4979,7 +4975,7 @@
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5000,7 +4996,7 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5021,7 +5017,7 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5042,7 +5038,7 @@
       <c r="R12" s="19"/>
       <c r="S12" s="19"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5063,7 +5059,7 @@
       <c r="R13" s="19"/>
       <c r="S13" s="19"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5084,7 +5080,7 @@
       <c r="R14" s="19"/>
       <c r="S14" s="19"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5105,7 +5101,7 @@
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5126,7 +5122,7 @@
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5147,7 +5143,7 @@
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5168,7 +5164,7 @@
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -5189,7 +5185,7 @@
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -5210,7 +5206,7 @@
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -5231,7 +5227,7 @@
       <c r="R21" s="19"/>
       <c r="S21" s="19"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -5252,7 +5248,7 @@
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -5273,7 +5269,7 @@
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>

--- a/PRODUCTOS/excel/tanques_datos.xlsx
+++ b/PRODUCTOS/excel/tanques_datos.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB16C2CA-F078-4CD4-AFD7-454CC81353AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1869F9-55B6-4031-8FAC-CFBD61A48775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="biodigestores" sheetId="1" r:id="rId1"/>
-    <sheet name="cisternas" sheetId="2" r:id="rId2"/>
-    <sheet name="gdpv" sheetId="3" r:id="rId3"/>
-    <sheet name="grisplata" sheetId="4" r:id="rId4"/>
-    <sheet name="eternit" sheetId="6" r:id="rId5"/>
-    <sheet name="otros" sheetId="5" r:id="rId6"/>
+    <sheet name="biodigestores_0000" sheetId="1" r:id="rId1"/>
+    <sheet name="cisternas_1000" sheetId="2" r:id="rId2"/>
+    <sheet name="gdpv_2000" sheetId="3" r:id="rId3"/>
+    <sheet name="grisplata_3000" sheetId="4" r:id="rId4"/>
+    <sheet name="eternit_4000" sheetId="6" r:id="rId5"/>
+    <sheet name="otros_5000" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -250,16 +250,10 @@
     <t>instalador</t>
   </si>
   <si>
-    <t>0003</t>
-  </si>
-  <si>
     <t>CISTERNA 750L</t>
   </si>
   <si>
     <t>750</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\tanques\img\0003_1.jpg</t>
   </si>
   <si>
     <t>Únicas con capa antibacteriana.
@@ -335,18 +329,12 @@
 contaminantes al agua.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0004</t>
-  </si>
-  <si>
     <t>CISTERNA 1200L</t>
   </si>
   <si>
     <t>1200</t>
   </si>
   <si>
-    <t>PRODUCTOS\tanques\img\0004_1.jpg</t>
-  </si>
-  <si>
     <t>145cm x 110cm</t>
   </si>
   <si>
@@ -359,16 +347,10 @@
     <t>recomendaciones</t>
   </si>
   <si>
-    <t>0005</t>
-  </si>
-  <si>
     <t>GARANTIA DE POR VIDA SLIM 500L</t>
   </si>
   <si>
     <t>SLIM 500</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\tanques\img\0005_1.jpg</t>
   </si>
   <si>
     <t>Los Tanques Rotoplas son los únicos con garantía de por vida, además de que cuentan con un dispositivo de acondicionamiento de agua, el cual retiene tierra y sedimentos, evitando que se tapen las tuberías y brindando agua limpia transparente y de la mejor calidad.&lt;br&gt;La innovadora tecnología Expel con la que cuenta el Tanque Rotoplas inhibe la reproducción de bacterias. No olvides que todos los accesorios tienen garantía de 5 años y Cero Fugas.</t>
@@ -438,36 +420,24 @@
 prolongar la vida útil del dispositivo.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0006</t>
-  </si>
-  <si>
     <t>GARANTIA DE POR VIDA FLAT 500L</t>
   </si>
   <si>
     <t>FLAT 500</t>
   </si>
   <si>
-    <t>PRODUCTOS\tanques\img\0006_1.jpg</t>
-  </si>
-  <si>
     <t>FLAT 500L</t>
   </si>
   <si>
     <t>77cm x 116cm</t>
   </si>
   <si>
-    <t>0007</t>
-  </si>
-  <si>
     <t>GARANTIA DE POR VIDA 600L</t>
   </si>
   <si>
     <t>600</t>
   </si>
   <si>
-    <t>PRODUCTOS\tanques\img\0007_1.jpg</t>
-  </si>
-  <si>
     <t>600L</t>
   </si>
   <si>
@@ -477,18 +447,12 @@
     <t>117cm x 97cm</t>
   </si>
   <si>
-    <t>0008</t>
-  </si>
-  <si>
     <t>GARANTIA DE POR VIDA 850L</t>
   </si>
   <si>
     <t>850</t>
   </si>
   <si>
-    <t>PRODUCTOS\tanques\img\0008_1.jpg</t>
-  </si>
-  <si>
     <t>850L</t>
   </si>
   <si>
@@ -498,18 +462,12 @@
     <t>125cm x 110cm</t>
   </si>
   <si>
-    <t>0009</t>
-  </si>
-  <si>
     <t>GARANTIA DE POR VIDA FLAT 1000L</t>
   </si>
   <si>
     <t>FLAT 1000</t>
   </si>
   <si>
-    <t>PRODUCTOS\tanques\img\0009_1.jpg</t>
-  </si>
-  <si>
     <t>FLAT 1000L</t>
   </si>
   <si>
@@ -519,18 +477,12 @@
     <t>89cm x 156cm</t>
   </si>
   <si>
-    <t>0010</t>
-  </si>
-  <si>
     <t>GARANTIA DE POR VIDA  1100L</t>
   </si>
   <si>
     <t>1100</t>
   </si>
   <si>
-    <t>PRODUCTOS\tanques\img\0010_1.jpg</t>
-  </si>
-  <si>
     <t>1100L</t>
   </si>
   <si>
@@ -543,13 +495,7 @@
     <t>t_boca</t>
   </si>
   <si>
-    <t>0011</t>
-  </si>
-  <si>
     <t>GRIS PLATA 600L</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\tanques\img\0011_1.jpg</t>
   </si>
   <si>
     <t>La estructura tricapa del tanque Rotoplas Gris garantiza la opacidad del interior del tanque, necesaria para evitar la fotosíntesis (desarrollo de algas y verdín) microorganismos y nasterias asociadas. Contiene aditivos para evitar el envejecimiento y la exposición a la intemperie.</t>
@@ -587,30 +533,18 @@
 al lugar de su instalación.</t>
   </si>
   <si>
-    <t>0012</t>
-  </si>
-  <si>
     <t>GRIS PLATA 750L</t>
   </si>
   <si>
-    <t>PRODUCTOS\tanques\img\0012_1.jpg</t>
-  </si>
-  <si>
     <t>2 1/2'' Lateral</t>
   </si>
   <si>
     <t>118cm x 110cm</t>
   </si>
   <si>
-    <t>0013</t>
-  </si>
-  <si>
     <t>GRIS PLATA 1100L</t>
   </si>
   <si>
-    <t>PRODUCTOS\tanques\img\0013_1.jpg</t>
-  </si>
-  <si>
     <t>3 1/2'' Lateral</t>
   </si>
   <si>
@@ -620,9 +554,6 @@
     <t>aplicaciones</t>
   </si>
   <si>
-    <t>0016</t>
-  </si>
-  <si>
     <t>Tanque de agua Eternit clasico 500L</t>
   </si>
   <si>
@@ -630,9 +561,6 @@
   </si>
   <si>
     <t>clasico 500L</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\tanques\img\0016_1.jpg</t>
   </si>
   <si>
     <t>El tanque Clásico es la solución de excelente calidad de uso tradicional. Con las seis capacidades logra satisfacer las necesidades de este segmento focalizando en calidad y equipamiento.</t>
@@ -653,16 +581,10 @@
 - Garantía de Calidad Eternit.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0017</t>
-  </si>
-  <si>
     <t>Tanque de agua Eternit bajo techo 500L</t>
   </si>
   <si>
     <t>bajo techo 500L</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\tanques\img\0017_1.jpg</t>
   </si>
   <si>
     <t>El tanque Bajo Techo es la solución de excelente calidad para ser usado en exterior para disimular su presencia o interior en espacios reducidos en altura . Con dos capacidades logra satisfacer las necesidades estéticas y practicidad.</t>
@@ -680,16 +602,10 @@
 - Garantía de Calidad Eternit.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0018</t>
-  </si>
-  <si>
     <t>Tanque de agua Eternit xlong 500L</t>
   </si>
   <si>
     <t>xlong 500L</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\tanques\img\0018_1.jpg</t>
   </si>
   <si>
     <t>El tanque XL es la solución de excelente calidad para ser usado en exterior o interior en espacios angostos, permite su entrada en un sótano o altillo . Su reducido diámetro permite pasar por el marco de una puerta. Este modelo proiriza practicidad y el espacio.</t>
@@ -707,16 +623,10 @@
 - Garantía de Calidad Eternit.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0019</t>
-  </si>
-  <si>
     <t>Tanque de agua Eternit torre 1500L</t>
   </si>
   <si>
     <t>torre 1500L</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\tanques\img\0019_1.jpg</t>
   </si>
   <si>
     <t>Tanque creado para propiedad horizontal, reforzado con aros laterales y con cuatro marcaciones de brida. Especial para ser colocado en batería</t>
@@ -737,16 +647,10 @@
 - Garantía de Calidad Eternit.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0020</t>
-  </si>
-  <si>
     <t>Tanque de agua Eternit premium 1100L</t>
   </si>
   <si>
     <t>premium 1100L</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\tanques\img\0020_1.jpg</t>
   </si>
   <si>
     <t>El modelo Premium Eternit es el mejor tanque del mercado por su equipamiento, mantenimiento térmico del agua y resistencia estructural. Estas tres características hacen de este modelo único en su clase. Un tanque que brinda máxima calidad.</t>
@@ -768,13 +672,7 @@
 - Garantía de Calidad Eternit.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0021</t>
-  </si>
-  <si>
     <t>Tanque de agua Eternit cisterna 850L</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\tanques\img\0021_1.jpg</t>
   </si>
   <si>
     <t>Las Cisternas Eternit son productos equipados y reforzados para ser instalados bajo tierra. Su diseño permite recibir presión lateral.</t>
@@ -791,35 +689,137 @@
 - Garantía de Calidad Eternit.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0014</t>
-  </si>
-  <si>
     <t>BASE DE APOYO CHICA</t>
   </si>
   <si>
-    <t>PRODUCTOS\tanques\img\0014_1.jpg</t>
-  </si>
-  <si>
     <t>El mejor apoyo para la instalación de tu tanque.&lt;br&gt;M600 (hasta 600 litros) y M1100 (hasta 1100 litros).&lt;br&gt;Livianas y de fácil instalación. Tubo de acero estructural. Tratamiento de cataforesis. Pintura epoxi horneada. Color negro mate inalterable.</t>
   </si>
   <si>
-    <t>0015</t>
-  </si>
-  <si>
     <t>BASE DE APOYO GRANDE</t>
   </si>
   <si>
-    <t>PRODUCTOS\tanques\img\0015_1.jpg</t>
-  </si>
-  <si>
     <t>ETERNIT</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\1001_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\1002_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\1000_1.jpg</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\2000_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\2001_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\2002_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\2003_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\2004_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\2005_1.jpg</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\3000_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\3001_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\3002_1.jpg</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>4003</t>
+  </si>
+  <si>
+    <t>4004</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\4000_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\4001_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\4002_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\4003_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\4004_1.jpg</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>5001</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\5000_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\tanques\img\5001_1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,6 +855,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1542,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4784A99D-B888-41AD-A6AD-E0E8291E2D36}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,53 +2118,53 @@
     </row>
     <row r="2" spans="1:20" ht="375" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="M2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="N2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="O2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="P2" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="Q2" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="25"/>
@@ -2166,53 +2172,53 @@
     </row>
     <row r="3" spans="1:20" ht="375" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="23" t="s">
+      <c r="N3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="P3" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="Q3" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
@@ -2220,36 +2226,36 @@
     </row>
     <row r="4" spans="1:20" s="19" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="43" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="N4" s="42"/>
       <c r="Q4" s="44" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2790,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1454252-798D-40F9-93E5-B0B5230D1038}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,7 +2854,7 @@
         <v>41</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>43</v>
@@ -2863,10 +2869,10 @@
         <v>17</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>20</v>
@@ -2880,53 +2886,53 @@
     </row>
     <row r="2" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="N2" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="O2" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="P2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="Q2" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
@@ -2934,53 +2940,53 @@
     </row>
     <row r="3" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="19" t="s">
+      <c r="N3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="P3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="Q3" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
@@ -2988,53 +2994,53 @@
     </row>
     <row r="4" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="N4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="P4" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="Q4" s="23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
@@ -3042,53 +3048,53 @@
     </row>
     <row r="5" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="N5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="P5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="Q5" s="23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
@@ -3096,53 +3102,53 @@
     </row>
     <row r="6" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="N6" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="P6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="Q6" s="23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
@@ -3150,53 +3156,53 @@
     </row>
     <row r="7" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="N7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="P7" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>82</v>
-      </c>
       <c r="Q7" s="23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
@@ -3665,6 +3671,7 @@
       <c r="T28" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3729,7 +3736,7 @@
         <v>41</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>43</v>
@@ -3744,7 +3751,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>20</v>
@@ -3758,50 +3765,50 @@
     </row>
     <row r="2" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="23" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
@@ -3809,50 +3816,50 @@
     </row>
     <row r="3" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="23" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
@@ -3860,50 +3867,50 @@
     </row>
     <row r="4" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="23" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="J4" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
@@ -4465,7 +4472,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4508,7 +4515,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>14</v>
@@ -4531,169 +4538,170 @@
     </row>
     <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="F2" s="37"/>
       <c r="G2" s="38" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
       <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="225" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>180</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4703,7 +4711,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4756,7 +4764,7 @@
         <v>41</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>43</v>
@@ -4771,7 +4779,7 @@
         <v>17</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="12" t="s">
         <v>20</v>
@@ -4785,23 +4793,23 @@
     </row>
     <row r="2" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="23" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -4818,23 +4826,23 @@
     </row>
     <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="23" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
